--- a/va_facility_data_2025-02-20/Rock Springs VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rock%20Springs%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Rock Springs VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rock%20Springs%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re9e70be69364473cb72344d2a7779fd3"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1fe25cbaaf354e10a45334c79114f494"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R667b45d060ba4b56ba43344f6f577028"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2b142cf1783344d0ba0eaaeee307adbc"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R57418e9e2c6a4216ba46b7d2cd744397"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3aa0e8447ab947658548bc2980db960d"/>
   </x:sheets>
 </x:workbook>
 </file>
